--- a/DOC/DIAGRAMA-TIEMPO-GRANT.xlsx
+++ b/DOC/DIAGRAMA-TIEMPO-GRANT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\asp.net\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AXEL\DOCUMENTOS\U\GITHUB\asp.net\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C97705-0183-4A45-8C21-6567A28D331F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD6FF37-45AE-4293-9866-4BAAE8C32BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{347AA2C2-9EF5-4E75-8D64-E9BF89E0675D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>NOMBRE DE LA TAREA</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>TIEMPO RELOJ</t>
+  </si>
+  <si>
+    <t>INCIO 4 FICHAS</t>
+  </si>
+  <si>
+    <t>SEMANA 9</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>SEMANA 10</t>
+  </si>
+  <si>
+    <t>DOCUMENTACION</t>
+  </si>
+  <si>
+    <t>FASE3.2</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,8 +285,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -331,17 +367,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -415,69 +440,6 @@
       </right>
       <top/>
       <bottom style="mediumDashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -498,17 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashDotDot">
         <color auto="1"/>
       </left>
@@ -541,37 +492,6 @@
       </right>
       <top style="mediumDashDotDot">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -590,17 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="mediumDashDotDot">
         <color auto="1"/>
       </left>
@@ -611,11 +520,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -625,70 +545,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -709,15 +603,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D489A564-D7B3-4D5E-BDD0-4C7C7B45F3C2}">
-  <dimension ref="B1:BE36"/>
+  <dimension ref="B1:BP39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,50 +1004,87 @@
     <col min="54" max="54" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="5.85546875" customWidth="1"/>
     <col min="56" max="56" width="7.28515625" customWidth="1"/>
+    <col min="57" max="57" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="59" t="s">
+    <row r="1" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="F1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="53" t="s">
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-    </row>
-    <row r="2" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="39"/>
+      <c r="AS1" s="39"/>
+      <c r="AT1" s="39"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="39"/>
+      <c r="BB1" s="39"/>
+      <c r="BC1" s="39"/>
+      <c r="BD1" s="39"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
+      <c r="BJ1" s="39"/>
+      <c r="BK1" s="39"/>
+      <c r="BL1" s="39"/>
+    </row>
+    <row r="2" spans="2:68" x14ac:dyDescent="0.25">
       <c r="F2" s="3">
         <v>24</v>
       </c>
@@ -1189,41 +1142,41 @@
       <c r="X2" s="3">
         <v>11</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="Y2" s="3">
         <v>12</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="45">
         <v>13</v>
       </c>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="30">
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3">
         <v>21</v>
       </c>
-      <c r="AI2" s="13">
+      <c r="AI2" s="3">
         <v>22</v>
       </c>
-      <c r="AJ2" s="13">
+      <c r="AJ2" s="3">
         <v>23</v>
       </c>
-      <c r="AK2" s="13">
+      <c r="AK2" s="3">
         <v>24</v>
       </c>
-      <c r="AL2" s="13">
+      <c r="AL2" s="3">
         <v>25</v>
       </c>
-      <c r="AM2" s="13">
+      <c r="AM2" s="3">
         <v>26</v>
       </c>
-      <c r="AN2" s="27">
+      <c r="AN2" s="3">
         <v>27</v>
       </c>
-      <c r="AO2" s="44">
+      <c r="AO2" s="45">
         <v>28</v>
       </c>
       <c r="AP2" s="45">
@@ -1241,10 +1194,10 @@
       <c r="AT2" s="45">
         <v>3</v>
       </c>
-      <c r="AU2" s="46">
+      <c r="AU2" s="45">
         <v>4</v>
       </c>
-      <c r="AV2" s="44">
+      <c r="AV2" s="45">
         <v>5</v>
       </c>
       <c r="AW2" s="45">
@@ -1268,294 +1221,375 @@
       <c r="BC2" s="45">
         <v>12</v>
       </c>
-      <c r="BD2" s="46">
+      <c r="BD2" s="45">
         <v>13</v>
       </c>
-      <c r="BE2" s="43"/>
-    </row>
-    <row r="3" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="60" t="s">
+      <c r="BE2" s="45">
+        <v>14</v>
+      </c>
+      <c r="BF2" s="45">
+        <v>15</v>
+      </c>
+      <c r="BG2" s="45">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="45">
+        <v>17</v>
+      </c>
+      <c r="BI2" s="45">
+        <v>18</v>
+      </c>
+      <c r="BJ2" s="45">
+        <v>19</v>
+      </c>
+      <c r="BK2" s="45">
+        <v>20</v>
+      </c>
+      <c r="BL2" s="45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63" t="s">
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="64" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="66" t="s">
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="55" t="s">
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
-      <c r="AL3" s="55"/>
-      <c r="AM3" s="55"/>
-      <c r="AN3" s="55"/>
-      <c r="AO3" s="56" t="s">
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="56" t="s">
+      <c r="AP3" s="48"/>
+      <c r="AQ3" s="48"/>
+      <c r="AR3" s="48"/>
+      <c r="AS3" s="48"/>
+      <c r="AT3" s="48"/>
+      <c r="AU3" s="48"/>
+      <c r="AV3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="57"/>
-      <c r="AX3" s="57"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="57"/>
-      <c r="BA3" s="57"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="BD3" s="58"/>
-    </row>
-    <row r="4" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="53"/>
+    </row>
+    <row r="4" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Y4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="23" t="s">
+      <c r="Z4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="38" t="s">
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AH4" s="28" t="s">
+      <c r="AH4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="29" t="s">
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="47" t="s">
+      <c r="AO4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AP4" s="47" t="s">
+      <c r="AP4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AQ4" s="47" t="s">
+      <c r="AQ4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="47" t="s">
+      <c r="AR4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AS4" s="47" t="s">
+      <c r="AS4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AT4" s="47" t="s">
+      <c r="AT4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AU4" s="48" t="s">
+      <c r="AU4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AV4" s="47" t="s">
+      <c r="AV4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AW4" s="47" t="s">
+      <c r="AW4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AX4" s="47" t="s">
+      <c r="AX4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="47" t="s">
+      <c r="AY4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AZ4" s="47" t="s">
+      <c r="AZ4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="BA4" s="47" t="s">
+      <c r="BA4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="BB4" s="48" t="s">
+      <c r="BB4" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="BC4" s="47" t="s">
+      <c r="BC4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="BD4" s="47" t="s">
+      <c r="BD4" s="58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="BE4" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="BF4" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BG4" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH4" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI4" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ4" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK4" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="BM4" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="BN4" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="BO4" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP4" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>44070</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>44074</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="13"/>
-      <c r="BB5" s="13"/>
-      <c r="BC5" s="13"/>
-      <c r="BD5" s="27"/>
-    </row>
-    <row r="6" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="12"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="22"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="22"/>
+    </row>
+    <row r="6" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1568,18 +1602,18 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1592,20 +1626,20 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1618,18 +1652,18 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1642,18 +1676,18 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1666,88 +1700,100 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>44086</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="13"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="13"/>
-      <c r="AW11" s="13"/>
-      <c r="AX11" s="13"/>
-      <c r="AY11" s="13"/>
-      <c r="AZ11" s="13"/>
-      <c r="BA11" s="13"/>
-      <c r="BB11" s="13"/>
-      <c r="BC11" s="13"/>
-      <c r="BD11" s="27"/>
-    </row>
-    <row r="12" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="37"/>
+      <c r="AJ11" s="37"/>
+      <c r="AK11" s="37"/>
+      <c r="AL11" s="37"/>
+      <c r="AM11" s="37"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="22"/>
+    </row>
+    <row r="12" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="5">
@@ -1759,26 +1805,26 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-    </row>
-    <row r="13" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="N12" s="19"/>
+      <c r="O12" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="13" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5">
@@ -1790,25 +1836,25 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1821,27 +1867,27 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1854,27 +1900,27 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-    </row>
-    <row r="16" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+    <row r="16" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1887,33 +1933,33 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="W16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="X16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-    </row>
-    <row r="17" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+    </row>
+    <row r="17" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1926,25 +1972,25 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-    </row>
-    <row r="18" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1957,31 +2003,31 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="X18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="16"/>
-    </row>
-    <row r="19" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z18" s="15"/>
+    </row>
+    <row r="19" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1994,27 +2040,27 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z19" s="16"/>
-    </row>
-    <row r="20" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z19" s="15"/>
+    </row>
+    <row r="20" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -2027,35 +2073,35 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="X20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z20" s="16"/>
-    </row>
-    <row r="21" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20" s="15"/>
+    </row>
+    <row r="21" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2068,25 +2114,25 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-    </row>
-    <row r="22" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+    </row>
+    <row r="22" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,25 +2145,25 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-    </row>
-    <row r="23" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="15"/>
+      <c r="O22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+    </row>
+    <row r="23" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2130,82 +2176,94 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z23" s="18"/>
-    </row>
-    <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z23" s="17"/>
+    </row>
+    <row r="24" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="57"/>
-      <c r="AM24" s="57"/>
-      <c r="AN24" s="58"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="27"/>
-    </row>
-    <row r="25" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="37"/>
+      <c r="AJ24" s="37"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="37"/>
+      <c r="AM24" s="37"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="22"/>
+    </row>
+    <row r="25" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
@@ -2218,18 +2276,18 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH25" s="39"/>
-    </row>
-    <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH25" s="30"/>
+    </row>
+    <row r="26" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2242,18 +2300,18 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH26" s="34"/>
-    </row>
-    <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH26" s="28"/>
+    </row>
+    <row r="27" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>42</v>
       </c>
@@ -2263,81 +2321,93 @@
       <c r="D27" s="5">
         <v>44094</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="32">
         <v>1</v>
       </c>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH27" s="32"/>
-    </row>
-    <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11" t="s">
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH27" s="26"/>
+    </row>
+    <row r="28" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="49"/>
-      <c r="BA28" s="49"/>
-      <c r="BB28" s="49"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="50"/>
-    </row>
-    <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="22"/>
+    </row>
+    <row r="29" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="5">
@@ -2349,29 +2419,29 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="AU29" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV29" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW29" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX29" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY29" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
-      <c r="BB29" s="31"/>
-      <c r="BC29" s="31"/>
-      <c r="BD29" s="31"/>
-    </row>
-    <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="AU29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ29" s="30"/>
+      <c r="BA29" s="30"/>
+      <c r="BB29" s="30"/>
+      <c r="BC29" s="30"/>
+      <c r="BD29" s="30"/>
+    </row>
+    <row r="30" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C30" s="5">
@@ -2383,27 +2453,27 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="31"/>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA30" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB30" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC30" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD30" s="31"/>
-    </row>
-    <row r="31" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22" t="s">
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD30" s="25"/>
+    </row>
+    <row r="31" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="4">
@@ -2415,117 +2485,246 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="AU31" s="32"/>
-      <c r="AW31" s="32"/>
-      <c r="AX31" s="32"/>
-      <c r="AY31" s="32"/>
-      <c r="AZ31" s="32"/>
-      <c r="BA31" s="32"/>
-      <c r="BB31" s="32"/>
-      <c r="BC31" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD31" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
+      <c r="AU31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD31" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="13"/>
-      <c r="BA32" s="13"/>
-      <c r="BB32" s="13"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="27"/>
-    </row>
-    <row r="33" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="s">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="12"/>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
+      <c r="AO32" s="12"/>
+      <c r="AP32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
+      <c r="AT32" s="12"/>
+      <c r="AU32" s="12"/>
+      <c r="AV32" s="12"/>
+      <c r="AW32" s="12"/>
+      <c r="AX32" s="12"/>
+      <c r="AY32" s="12"/>
+      <c r="AZ32" s="12"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="12"/>
+      <c r="BF32" s="12"/>
+      <c r="BG32" s="12"/>
+      <c r="BH32" s="12"/>
+      <c r="BI32" s="12"/>
+      <c r="BJ32" s="12"/>
+      <c r="BK32" s="12"/>
+      <c r="BL32" s="12"/>
+      <c r="BM32" s="12"/>
+      <c r="BN32" s="12"/>
+      <c r="BO32" s="12"/>
+      <c r="BP32" s="22"/>
+    </row>
+    <row r="33" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E33" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE33" s="30"/>
+      <c r="BF33" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG33" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH33" s="30"/>
+      <c r="BI33" s="30"/>
+      <c r="BJ33" s="30"/>
+    </row>
+    <row r="34" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC34" s="34"/>
+      <c r="BE34" s="25"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ34" s="25"/>
+    </row>
+    <row r="35" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="25"/>
+      <c r="BF35" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG35" s="25"/>
+      <c r="BH35" s="25"/>
+      <c r="BI35" s="25"/>
+      <c r="BJ35" s="25"/>
+    </row>
+    <row r="36" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE36" s="26"/>
+      <c r="BF36" s="26"/>
+      <c r="BG36" s="26"/>
+      <c r="BH36" s="26"/>
+      <c r="BI36" s="26"/>
+      <c r="BJ36" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:68" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+      <c r="AF37" s="12"/>
+      <c r="AG37" s="12"/>
+      <c r="AH37" s="12"/>
+      <c r="AI37" s="12"/>
+      <c r="AJ37" s="12"/>
+      <c r="AK37" s="12"/>
+      <c r="AL37" s="12"/>
+      <c r="AM37" s="12"/>
+      <c r="AN37" s="12"/>
+      <c r="AO37" s="12"/>
+      <c r="AP37" s="12"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="12"/>
+      <c r="AS37" s="12"/>
+      <c r="AT37" s="12"/>
+      <c r="AU37" s="12"/>
+      <c r="AV37" s="12"/>
+      <c r="AW37" s="12"/>
+      <c r="AX37" s="12"/>
+      <c r="AY37" s="12"/>
+      <c r="AZ37" s="12"/>
+      <c r="BA37" s="12"/>
+      <c r="BB37" s="12"/>
+      <c r="BC37" s="12"/>
+      <c r="BD37" s="12"/>
+      <c r="BE37" s="12"/>
+      <c r="BF37" s="12"/>
+      <c r="BG37" s="12"/>
+      <c r="BH37" s="12"/>
+      <c r="BI37" s="12"/>
+      <c r="BJ37" s="12"/>
+      <c r="BK37" s="12"/>
+      <c r="BL37" s="12"/>
+      <c r="BM37" s="12"/>
+      <c r="BN37" s="12"/>
+      <c r="BO37" s="12"/>
+      <c r="BP37" s="22"/>
+    </row>
+    <row r="38" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B38" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:68" x14ac:dyDescent="0.25">
+      <c r="B39" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="51"/>
-    </row>
-    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
-      <c r="E36" s="2">
-        <v>0</v>
+      <c r="E39" s="2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AO3:AU3"/>
-    <mergeCell ref="AV3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="F24:AN24"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="F11:AN11"/>
+  <mergeCells count="16">
+    <mergeCell ref="AO1:BL1"/>
+    <mergeCell ref="BJ3:BL3"/>
     <mergeCell ref="N1:AN1"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="F5:AN5"/>
@@ -2534,6 +2733,12 @@
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="T3:Z3"/>
+    <mergeCell ref="AO3:AU3"/>
+    <mergeCell ref="AV3:BB3"/>
+    <mergeCell ref="F24:AN24"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="F11:AN11"/>
+    <mergeCell ref="BC3:BI3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2688,18 +2893,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2721,14 +2926,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373F2DBB-7280-47BF-88D3-30E5ED46C034}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68AEF774-7DB7-475C-887D-31ECF3DFC4A6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -2742,4 +2939,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{373F2DBB-7280-47BF-88D3-30E5ED46C034}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>